--- a/MQTT_topics.xlsx
+++ b/MQTT_topics.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="120" windowWidth="26835" windowHeight="11820"/>
@@ -11,19 +11,16 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="25">
   <si>
     <t>Category</t>
   </si>
   <si>
-    <t>Item</t>
-  </si>
-  <si>
     <t>server</t>
   </si>
   <si>
@@ -45,9 +42,6 @@
     <t>temp</t>
   </si>
   <si>
-    <t>system</t>
-  </si>
-  <si>
     <t>state</t>
   </si>
   <si>
@@ -75,39 +69,48 @@
     <t>ON, OFF, TOGGLE</t>
   </si>
   <si>
-    <t>85.0</t>
-  </si>
-  <si>
-    <t>75.0</t>
-  </si>
-  <si>
     <t>Online, Offline</t>
   </si>
   <si>
-    <t>60.0</t>
-  </si>
-  <si>
-    <t>95.0</t>
-  </si>
-  <si>
-    <t>71.25</t>
-  </si>
-  <si>
-    <t>45.0</t>
-  </si>
-  <si>
     <t>tempmax</t>
   </si>
   <si>
     <t>---</t>
+  </si>
+  <si>
+    <t>soc</t>
+  </si>
+  <si>
+    <t>Parameter</t>
+  </si>
+  <si>
+    <t>Measure</t>
+  </si>
+  <si>
+    <t>val</t>
+  </si>
+  <si>
+    <t>perc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -136,12 +139,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="normálne" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -154,7 +163,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motív Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -228,7 +237,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -263,7 +271,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -439,247 +446,306 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" s="2" customFormat="1">
+      <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="4">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="4">
+        <v>71.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="4">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/MQTT_topics.xlsx
+++ b/MQTT_topics.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="120" windowWidth="26835" windowHeight="11820"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="26">
   <si>
     <t>Category</t>
   </si>
@@ -27,9 +27,6 @@
     <t>fan</t>
   </si>
   <si>
-    <t>Device/Script</t>
-  </si>
-  <si>
     <t>iot</t>
   </si>
   <si>
@@ -91,16 +88,22 @@
   </si>
   <si>
     <t>perc</t>
+  </si>
+  <si>
+    <t>Device</t>
+  </si>
+  <si>
+    <t>Online, Offline, Running, Idle</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,7 +153,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="normálne" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -163,7 +166,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motív Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -237,6 +240,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -271,6 +275,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -446,82 +451,85 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1">
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
         <v>22</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>23</v>
       </c>
       <c r="F2" s="4">
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F3" s="4">
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -529,19 +537,19 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -549,19 +557,19 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F5" s="4">
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -569,19 +577,19 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F6" s="4">
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -589,19 +597,19 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F7" s="4">
         <v>71.25</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -609,19 +617,19 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F8" s="4">
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -629,19 +637,19 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F9" s="4">
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -649,39 +657,39 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
       <c r="E11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F11" s="4">
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -689,36 +697,36 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F12" s="4">
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -728,24 +736,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/MQTT_topics.xlsx
+++ b/MQTT_topics.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="23">
   <si>
     <t>Category</t>
   </si>
@@ -42,36 +42,15 @@
     <t>state</t>
   </si>
   <si>
-    <t>control</t>
-  </si>
-  <si>
-    <t>percon</t>
-  </si>
-  <si>
-    <t>percoff</t>
-  </si>
-  <si>
-    <t>tempon</t>
-  </si>
-  <si>
-    <t>tempoff</t>
-  </si>
-  <si>
     <t>cmd</t>
   </si>
   <si>
     <t>Value</t>
   </si>
   <si>
-    <t>ON, OFF, TOGGLE</t>
-  </si>
-  <si>
     <t>Online, Offline</t>
   </si>
   <si>
-    <t>tempmax</t>
-  </si>
-  <si>
     <t>---</t>
   </si>
   <si>
@@ -93,7 +72,19 @@
     <t>Device</t>
   </si>
   <si>
-    <t>Online, Offline, Running, Idle</t>
+    <t>Online, Offline, Active, Idle</t>
+  </si>
+  <si>
+    <t>ON, OFF, TOGGLE, STATUS, RESET</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>on</t>
+  </si>
+  <si>
+    <t>off</t>
   </si>
 </sst>
 </file>
@@ -452,11 +443,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -466,7 +457,7 @@
     <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.5703125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -474,19 +465,19 @@
         <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -494,7 +485,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -503,7 +494,7 @@
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F2" s="4">
         <v>60</v>
@@ -514,7 +505,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -522,11 +513,11 @@
       <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" t="s">
-        <v>23</v>
+      <c r="E3" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="F3" s="4">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -540,13 +531,13 @@
         <v>7</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -560,10 +551,10 @@
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F5" s="4">
         <v>60</v>
@@ -580,10 +571,10 @@
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F6" s="4">
         <v>95</v>
@@ -600,10 +591,10 @@
         <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F7" s="4">
         <v>71.25</v>
@@ -620,10 +611,10 @@
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F8" s="4">
         <v>45</v>
@@ -637,16 +628,16 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" t="s">
-        <v>17</v>
+        <v>8</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="4">
-        <v>75</v>
+        <v>11</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -657,16 +648,16 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="F10" s="4">
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -677,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F11" s="4">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -694,39 +685,19 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="4">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/MQTT_topics.xlsx
+++ b/MQTT_topics.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="23">
   <si>
     <t>Category</t>
   </si>
@@ -443,11 +443,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -685,18 +685,58 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="4">
+        <v>71.25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
         <v>3</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C14" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F14" s="4" t="s">
         <v>10</v>
       </c>
     </row>
